--- a/segments/results/linux/segment_summary.xlsx
+++ b/segments/results/linux/segment_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>Segment Name</t>
   </si>
@@ -24,19 +24,214 @@
     <t>Characteristics</t>
   </si>
   <si>
+    <t>Avg Size of Raw Data (bytes)</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>.setup</t>
+  </si>
+  <si>
+    <t>.reloc</t>
+  </si>
+  <si>
+    <t>.compat</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>.data</t>
+  </si>
+  <si>
+    <t>.rdata</t>
+  </si>
+  <si>
+    <t>.buildid</t>
+  </si>
+  <si>
+    <t>.pdata</t>
+  </si>
+  <si>
+    <t>.xdata</t>
+  </si>
+  <si>
+    <t>.bss</t>
+  </si>
+  <si>
+    <t>.idata</t>
+  </si>
+  <si>
+    <t>.CRT</t>
+  </si>
+  <si>
+    <t>.tls</t>
+  </si>
+  <si>
+    <t>/4</t>
+  </si>
+  <si>
+    <t>/20</t>
+  </si>
+  <si>
+    <t>/33</t>
+  </si>
+  <si>
+    <t>/48</t>
+  </si>
+  <si>
+    <t>/61</t>
+  </si>
+  <si>
+    <t>/75</t>
+  </si>
+  <si>
+    <t>/87</t>
+  </si>
+  <si>
+    <t>/99</t>
+  </si>
+  <si>
+    <t>.rsrc</t>
+  </si>
+  <si>
+    <t>/19</t>
+  </si>
+  <si>
+    <t>/31</t>
+  </si>
+  <si>
+    <t>/45</t>
+  </si>
+  <si>
+    <t>/57</t>
+  </si>
+  <si>
+    <t>/70</t>
+  </si>
+  <si>
+    <t>/81</t>
+  </si>
+  <si>
+    <t>/92</t>
+  </si>
+  <si>
+    <t>/35</t>
+  </si>
+  <si>
+    <t>/51</t>
+  </si>
+  <si>
+    <t>/63</t>
+  </si>
+  <si>
+    <t>/77</t>
+  </si>
+  <si>
+    <t>/89</t>
+  </si>
+  <si>
+    <t>/102</t>
+  </si>
+  <si>
+    <t>.eh_fram</t>
+  </si>
+  <si>
+    <t>.edata</t>
+  </si>
+  <si>
+    <t>/14</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>/41</t>
+  </si>
+  <si>
+    <t>/55</t>
+  </si>
+  <si>
+    <t>/67</t>
+  </si>
+  <si>
+    <t>/80</t>
+  </si>
+  <si>
+    <t>/91</t>
+  </si>
+  <si>
+    <t>/116</t>
+  </si>
+  <si>
+    <t>/132</t>
+  </si>
+  <si>
+    <t>/148</t>
+  </si>
+  <si>
+    <t>_RDATA</t>
+  </si>
+  <si>
+    <t>.gfids</t>
+  </si>
+  <si>
+    <t>.sdmagic</t>
+  </si>
+  <si>
+    <t>.rodata</t>
+  </si>
+  <si>
+    <t>.sbat</t>
+  </si>
+  <si>
+    <t>.osrel</t>
+  </si>
+  <si>
+    <t>R E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW </t>
+  </si>
+  <si>
     <t>Avg Size (bytes)</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>PT_LOAD</t>
+  </si>
+  <si>
+    <t>PT_NOTE</t>
+  </si>
+  <si>
+    <t>PT_TLS</t>
+  </si>
+  <si>
+    <t>PT_GNU_PROPERTY</t>
+  </si>
+  <si>
+    <t>PT_GNU_STACK</t>
+  </si>
+  <si>
+    <t>PT_GNU_RELRO</t>
+  </si>
+  <si>
+    <t>PT_DYNAMIC</t>
+  </si>
+  <si>
+    <t>PT_GNU_EH_FRAME</t>
   </si>
   <si>
     <t>PT_PHDR</t>
@@ -45,37 +240,22 @@
     <t>PT_INTERP</t>
   </si>
   <si>
-    <t>PT_LOAD</t>
-  </si>
-  <si>
-    <t>PT_DYNAMIC</t>
-  </si>
-  <si>
-    <t>PT_NOTE</t>
-  </si>
-  <si>
-    <t>PT_GNU_PROPERTY</t>
-  </si>
-  <si>
-    <t>PT_GNU_EH_FRAME</t>
-  </si>
-  <si>
-    <t>PT_GNU_STACK</t>
-  </si>
-  <si>
-    <t>PT_GNU_RELRO</t>
-  </si>
-  <si>
-    <t>PT_TLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R  </t>
-  </si>
-  <si>
-    <t>R E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW </t>
+    <t>PT_NULL</t>
+  </si>
+  <si>
+    <t>PT_MIPS_ABIFLAGS</t>
+  </si>
+  <si>
+    <t>PT_ARM_EXIDX</t>
+  </si>
+  <si>
+    <t>PT_RISCV_ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>RWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -433,19 +613,2182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>10890.66666666667</v>
+      </c>
+      <c r="D2">
+        <v>16864</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>7712.922028791827</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>15.08494466531301</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>3883414.4</v>
+      </c>
+      <c r="D5">
+        <v>11271264</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4846149.847374082</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>5120</v>
+      </c>
+      <c r="D6">
+        <v>8192</v>
+      </c>
+      <c r="E6">
+        <v>3584</v>
+      </c>
+      <c r="F6">
+        <v>2172.232031805074</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>1706.666666666667</v>
+      </c>
+      <c r="D7">
+        <v>4096</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>1689.513802515057</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>3072</v>
+      </c>
+      <c r="D8">
+        <v>4096</v>
+      </c>
+      <c r="E8">
+        <v>2048</v>
+      </c>
+      <c r="F8">
+        <v>1024</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>4096</v>
+      </c>
+      <c r="D9">
+        <v>4096</v>
+      </c>
+      <c r="E9">
+        <v>4096</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>2218.666666666667</v>
+      </c>
+      <c r="D10">
+        <v>4096</v>
+      </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
+      <c r="F10">
+        <v>1343.830677164682</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>2218.666666666667</v>
+      </c>
+      <c r="D11">
+        <v>4096</v>
+      </c>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+      <c r="F11">
+        <v>1343.830677164682</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>2150.4</v>
+      </c>
+      <c r="D13">
+        <v>4096</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+      <c r="F13">
+        <v>1140.278141507589</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>1706.666666666667</v>
+      </c>
+      <c r="D14">
+        <v>4096</v>
+      </c>
+      <c r="E14">
+        <v>512</v>
+      </c>
+      <c r="F14">
+        <v>1689.513802515057</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>4096</v>
+      </c>
+      <c r="D15">
+        <v>4096</v>
+      </c>
+      <c r="E15">
+        <v>4096</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>4096</v>
+      </c>
+      <c r="D16">
+        <v>4096</v>
+      </c>
+      <c r="E16">
+        <v>4096</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>4096</v>
+      </c>
+      <c r="D25">
+        <v>4096</v>
+      </c>
+      <c r="E25">
+        <v>4096</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>65536</v>
+      </c>
+      <c r="D26">
+        <v>65536</v>
+      </c>
+      <c r="E26">
+        <v>65536</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>4096</v>
+      </c>
+      <c r="D27">
+        <v>4096</v>
+      </c>
+      <c r="E27">
+        <v>4096</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>8192</v>
+      </c>
+      <c r="D28">
+        <v>8192</v>
+      </c>
+      <c r="E28">
+        <v>8192</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>4096</v>
+      </c>
+      <c r="D29">
+        <v>4096</v>
+      </c>
+      <c r="E29">
+        <v>4096</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>4096</v>
+      </c>
+      <c r="D30">
+        <v>4096</v>
+      </c>
+      <c r="E30">
+        <v>4096</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>4096</v>
+      </c>
+      <c r="D31">
+        <v>4096</v>
+      </c>
+      <c r="E31">
+        <v>4096</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>4096</v>
+      </c>
+      <c r="D32">
+        <v>4096</v>
+      </c>
+      <c r="E32">
+        <v>4096</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>245546</v>
+      </c>
+      <c r="D33">
+        <v>13012992</v>
+      </c>
+      <c r="E33">
+        <v>512</v>
+      </c>
+      <c r="F33">
+        <v>1082638.815825481</v>
+      </c>
+      <c r="G33">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>35429.27472527473</v>
+      </c>
+      <c r="D34">
+        <v>347648</v>
+      </c>
+      <c r="E34">
+        <v>1536</v>
+      </c>
+      <c r="F34">
+        <v>61142.82862571132</v>
+      </c>
+      <c r="G34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>59799.4554973822</v>
+      </c>
+      <c r="D35">
+        <v>2433024</v>
+      </c>
+      <c r="E35">
+        <v>512</v>
+      </c>
+      <c r="F35">
+        <v>232209.4168890095</v>
+      </c>
+      <c r="G35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>8476.444444444445</v>
+      </c>
+      <c r="D36">
+        <v>133120</v>
+      </c>
+      <c r="E36">
+        <v>512</v>
+      </c>
+      <c r="F36">
+        <v>21746.85953271881</v>
+      </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>1024</v>
+      </c>
+      <c r="D37">
+        <v>1024</v>
+      </c>
+      <c r="E37">
+        <v>1024</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>2534.760563380282</v>
+      </c>
+      <c r="D38">
+        <v>22016</v>
+      </c>
+      <c r="E38">
+        <v>512</v>
+      </c>
+      <c r="F38">
+        <v>4333.54135332524</v>
+      </c>
+      <c r="G38">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>2384.842105263158</v>
+      </c>
+      <c r="D39">
+        <v>78848</v>
+      </c>
+      <c r="E39">
+        <v>512</v>
+      </c>
+      <c r="F39">
+        <v>6450.566646254889</v>
+      </c>
+      <c r="G39">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>2048</v>
+      </c>
+      <c r="D40">
+        <v>2048</v>
+      </c>
+      <c r="E40">
+        <v>2048</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>512</v>
+      </c>
+      <c r="D42">
+        <v>512</v>
+      </c>
+      <c r="E42">
+        <v>512</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>1536</v>
+      </c>
+      <c r="D43">
+        <v>1536</v>
+      </c>
+      <c r="E43">
+        <v>1536</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>64000</v>
+      </c>
+      <c r="D44">
+        <v>78336</v>
+      </c>
+      <c r="E44">
+        <v>49664</v>
+      </c>
+      <c r="F44">
+        <v>14336</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>9472</v>
+      </c>
+      <c r="D45">
+        <v>11776</v>
+      </c>
+      <c r="E45">
+        <v>7168</v>
+      </c>
+      <c r="F45">
+        <v>2304</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>11520</v>
+      </c>
+      <c r="D46">
+        <v>15872</v>
+      </c>
+      <c r="E46">
+        <v>7168</v>
+      </c>
+      <c r="F46">
+        <v>4352</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>4864</v>
+      </c>
+      <c r="D47">
+        <v>6656</v>
+      </c>
+      <c r="E47">
+        <v>3072</v>
+      </c>
+      <c r="F47">
+        <v>1792</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>1024</v>
+      </c>
+      <c r="D48">
+        <v>1024</v>
+      </c>
+      <c r="E48">
+        <v>1024</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>45312</v>
+      </c>
+      <c r="D49">
+        <v>78848</v>
+      </c>
+      <c r="E49">
+        <v>11776</v>
+      </c>
+      <c r="F49">
+        <v>33536</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>2304</v>
+      </c>
+      <c r="D50">
+        <v>3072</v>
+      </c>
+      <c r="E50">
+        <v>1536</v>
+      </c>
+      <c r="F50">
+        <v>768</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>512</v>
+      </c>
+      <c r="D51">
+        <v>512</v>
+      </c>
+      <c r="E51">
+        <v>512</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>512</v>
+      </c>
+      <c r="D52">
+        <v>512</v>
+      </c>
+      <c r="E52">
+        <v>512</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54">
+        <v>512</v>
+      </c>
+      <c r="D54">
+        <v>512</v>
+      </c>
+      <c r="E54">
+        <v>512</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>512</v>
+      </c>
+      <c r="D55">
+        <v>512</v>
+      </c>
+      <c r="E55">
+        <v>512</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>512</v>
+      </c>
+      <c r="D56">
+        <v>512</v>
+      </c>
+      <c r="E56">
+        <v>512</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>512</v>
+      </c>
+      <c r="D57">
+        <v>512</v>
+      </c>
+      <c r="E57">
+        <v>512</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>512</v>
+      </c>
+      <c r="D58">
+        <v>512</v>
+      </c>
+      <c r="E58">
+        <v>512</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>4096</v>
+      </c>
+      <c r="D59">
+        <v>4096</v>
+      </c>
+      <c r="E59">
+        <v>4096</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>512</v>
+      </c>
+      <c r="D60">
+        <v>512</v>
+      </c>
+      <c r="E60">
+        <v>512</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>512</v>
+      </c>
+      <c r="D61">
+        <v>512</v>
+      </c>
+      <c r="E61">
+        <v>512</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>512</v>
+      </c>
+      <c r="D62">
+        <v>512</v>
+      </c>
+      <c r="E62">
+        <v>512</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>512</v>
+      </c>
+      <c r="D63">
+        <v>512</v>
+      </c>
+      <c r="E63">
+        <v>512</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>1024</v>
+      </c>
+      <c r="D64">
+        <v>1024</v>
+      </c>
+      <c r="E64">
+        <v>1024</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>707481.6</v>
+      </c>
+      <c r="D67">
+        <v>2805248</v>
+      </c>
+      <c r="E67">
+        <v>7168</v>
+      </c>
+      <c r="F67">
+        <v>978007.0977757984</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>108646.4</v>
+      </c>
+      <c r="D68">
+        <v>466944</v>
+      </c>
+      <c r="E68">
+        <v>3072</v>
+      </c>
+      <c r="F68">
+        <v>157777.4002899021</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>118451.2</v>
+      </c>
+      <c r="D70">
+        <v>712704</v>
+      </c>
+      <c r="E70">
+        <v>512</v>
+      </c>
+      <c r="F70">
+        <v>219308.9276563086</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71">
+        <v>4403.2</v>
+      </c>
+      <c r="D71">
+        <v>10752</v>
+      </c>
+      <c r="E71">
+        <v>1024</v>
+      </c>
+      <c r="F71">
+        <v>3022.101414578935</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72">
+        <v>512</v>
+      </c>
+      <c r="D72">
+        <v>512</v>
+      </c>
+      <c r="E72">
+        <v>512</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73">
+        <v>512</v>
+      </c>
+      <c r="D73">
+        <v>512</v>
+      </c>
+      <c r="E73">
+        <v>512</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <v>18432</v>
+      </c>
+      <c r="D74">
+        <v>42496</v>
+      </c>
+      <c r="E74">
+        <v>2560</v>
+      </c>
+      <c r="F74">
+        <v>16387.99951183792</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75">
+        <v>2541952</v>
+      </c>
+      <c r="D75">
+        <v>4862464</v>
+      </c>
+      <c r="E75">
+        <v>507904</v>
+      </c>
+      <c r="F75">
+        <v>2034901.870994275</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>247680</v>
+      </c>
+      <c r="D76">
+        <v>460288</v>
+      </c>
+      <c r="E76">
+        <v>53248</v>
+      </c>
+      <c r="F76">
+        <v>194613.0033065622</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77">
+        <v>576896</v>
+      </c>
+      <c r="D77">
+        <v>1180160</v>
+      </c>
+      <c r="E77">
+        <v>46080</v>
+      </c>
+      <c r="F77">
+        <v>531860.2393260846</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>224128</v>
+      </c>
+      <c r="D78">
+        <v>848896</v>
+      </c>
+      <c r="E78">
+        <v>512</v>
+      </c>
+      <c r="F78">
+        <v>361200.1924251979</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79">
+        <v>92544</v>
+      </c>
+      <c r="D79">
+        <v>158720</v>
+      </c>
+      <c r="E79">
+        <v>28672</v>
+      </c>
+      <c r="F79">
+        <v>63892.77417674083</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>80640</v>
+      </c>
+      <c r="D80">
+        <v>193536</v>
+      </c>
+      <c r="E80">
+        <v>4608</v>
+      </c>
+      <c r="F80">
+        <v>77765.45166074715</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>4736</v>
+      </c>
+      <c r="D81">
+        <v>11264</v>
+      </c>
+      <c r="E81">
+        <v>1024</v>
+      </c>
+      <c r="F81">
+        <v>4085.987763075166</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>90112</v>
+      </c>
+      <c r="D82">
+        <v>173568</v>
+      </c>
+      <c r="E82">
+        <v>16896</v>
+      </c>
+      <c r="F82">
+        <v>73573.1707621739</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83">
+        <v>712960</v>
+      </c>
+      <c r="D83">
+        <v>1664512</v>
+      </c>
+      <c r="E83">
+        <v>38400</v>
+      </c>
+      <c r="F83">
+        <v>695472.9436117555</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84">
+        <v>96512</v>
+      </c>
+      <c r="D84">
+        <v>219136</v>
+      </c>
+      <c r="E84">
+        <v>4608</v>
+      </c>
+      <c r="F84">
+        <v>94023.12294324199</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85">
+        <v>512</v>
+      </c>
+      <c r="D85">
+        <v>512</v>
+      </c>
+      <c r="E85">
+        <v>512</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86">
+        <v>40652.8</v>
+      </c>
+      <c r="D86">
+        <v>224256</v>
+      </c>
+      <c r="E86">
+        <v>1024</v>
+      </c>
+      <c r="F86">
+        <v>69146.23976009108</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <v>512</v>
+      </c>
+      <c r="D87">
+        <v>512</v>
+      </c>
+      <c r="E87">
+        <v>512</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>512</v>
+      </c>
+      <c r="D88">
+        <v>512</v>
+      </c>
+      <c r="E88">
+        <v>512</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89">
+        <v>512</v>
+      </c>
+      <c r="D89">
+        <v>512</v>
+      </c>
+      <c r="E89">
+        <v>512</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>18432</v>
+      </c>
+      <c r="D90">
+        <v>20480</v>
+      </c>
+      <c r="E90">
+        <v>16384</v>
+      </c>
+      <c r="F90">
+        <v>2048</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>512</v>
+      </c>
+      <c r="D91">
+        <v>512</v>
+      </c>
+      <c r="E91">
+        <v>512</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92">
+        <v>512</v>
+      </c>
+      <c r="D92">
+        <v>512</v>
+      </c>
+      <c r="E92">
+        <v>512</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93">
+        <v>12288</v>
+      </c>
+      <c r="D93">
+        <v>12288</v>
+      </c>
+      <c r="E93">
+        <v>12288</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <v>4096</v>
+      </c>
+      <c r="D94">
+        <v>4096</v>
+      </c>
+      <c r="E94">
+        <v>4096</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -476,278 +2819,669 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>729.2253829321663</v>
+        <v>59519.94041170098</v>
       </c>
       <c r="D2">
-        <v>784</v>
+        <v>30786992</v>
       </c>
       <c r="E2">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.40638012911573</v>
+        <v>631202.1755093787</v>
       </c>
       <c r="G2">
-        <v>914</v>
+        <v>22152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>28.02625820568928</v>
+        <v>242494.9257515393</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>98812033</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.2276552613328614</v>
+        <v>2468905.707944884</v>
       </c>
       <c r="G3">
-        <v>914</v>
+        <v>11044</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>21864.29858078603</v>
+        <v>64313.56527460958</v>
       </c>
       <c r="D4">
-        <v>2274147</v>
+        <v>20001328</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>89571.11783244133</v>
+        <v>568427.6945521513</v>
       </c>
       <c r="G4">
-        <v>1832</v>
+        <v>11398</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>76204.49344978166</v>
+        <v>456.8947932690066</v>
       </c>
       <c r="D5">
-        <v>6829297</v>
+        <v>8388664</v>
       </c>
       <c r="E5">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>320449.5648163838</v>
+        <v>57271.06482307906</v>
       </c>
       <c r="G5">
-        <v>916</v>
+        <v>21453</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>29230.64628820961</v>
+        <v>7450219738978679</v>
       </c>
       <c r="D6">
-        <v>4539144</v>
+        <v>9.223372036854776E+18</v>
       </c>
       <c r="E6">
-        <v>560</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>191457.2789759048</v>
+        <v>2.620317588284911E+17</v>
       </c>
       <c r="G6">
-        <v>916</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>460.7860262008734</v>
+        <v>65.55346607669617</v>
       </c>
       <c r="D7">
-        <v>656</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>27.97897801647652</v>
+        <v>5.803926533610604</v>
       </c>
       <c r="G7">
-        <v>916</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>73.95191256830601</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6.483091429569703</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1830</v>
+        <v>10969</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>79.80743982494529</v>
+        <v>16320.2224048206</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>5936320</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>2.173570459859111</v>
+        <v>109544.5710817815</v>
       </c>
       <c r="G9">
-        <v>914</v>
+        <v>10953</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>1292.934497816594</v>
+        <v>501.3982139602697</v>
       </c>
       <c r="D10">
-        <v>127132</v>
+        <v>2032</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6124.449428607422</v>
+        <v>62.75396646135875</v>
       </c>
       <c r="G10">
-        <v>916</v>
+        <v>10974</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4645.980406932931</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>931196</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>39298.11136909963</v>
       </c>
       <c r="G11">
-        <v>916</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>5171.694323144105</v>
+        <v>729.3942658557776</v>
       </c>
       <c r="D12">
-        <v>806200</v>
+        <v>840</v>
       </c>
       <c r="E12">
-        <v>536</v>
+        <v>224</v>
       </c>
       <c r="F12">
-        <v>34620.13854362693</v>
+        <v>28.29816549568376</v>
       </c>
       <c r="G12">
-        <v>916</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>29.34391716997412</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.21704695576433</v>
+      </c>
+      <c r="G13">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>115.0982658959538</v>
+      </c>
+      <c r="D15">
+        <v>576</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>31.13306603052598</v>
+      </c>
+      <c r="G15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>7295132.888888889</v>
+      </c>
+      <c r="D16">
+        <v>13623296</v>
+      </c>
+      <c r="E16">
+        <v>432</v>
+      </c>
+      <c r="F16">
+        <v>6556533.061242053</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>252.5</v>
+      </c>
+      <c r="D17">
+        <v>516</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>252.8591505166463</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>19598.5</v>
+      </c>
+      <c r="D18">
+        <v>143680</v>
+      </c>
+      <c r="E18">
+        <v>412</v>
+      </c>
+      <c r="F18">
+        <v>36980.60066778256</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>204.1538461538462</v>
-      </c>
-      <c r="D13">
-        <v>1040</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>276.1030593968202</v>
-      </c>
-      <c r="G13">
-        <v>26</v>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>472</v>
+      </c>
+      <c r="D19">
+        <v>560</v>
+      </c>
+      <c r="E19">
+        <v>160</v>
+      </c>
+      <c r="F19">
+        <v>115.8134964390887</v>
+      </c>
+      <c r="G19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1879048194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>132</v>
+      </c>
+      <c r="D20">
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>128</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1879048192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>851968</v>
+      </c>
+      <c r="D24">
+        <v>2097152</v>
+      </c>
+      <c r="E24">
+        <v>4096</v>
+      </c>
+      <c r="F24">
+        <v>1015233.076012794</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>5888</v>
+      </c>
+      <c r="D25">
+        <v>15464</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>6434.641248741067</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1694766464</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>1879048189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>1684333904</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +3491,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -788,278 +3522,669 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>729.2253829321663</v>
+        <v>59519.82222824124</v>
       </c>
       <c r="D2">
-        <v>784</v>
+        <v>30786992</v>
       </c>
       <c r="E2">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.40638012911573</v>
+        <v>631202.1865313879</v>
       </c>
       <c r="G2">
-        <v>914</v>
+        <v>22152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>28.02625820568928</v>
+        <v>241906.0994204998</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>98812033</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2276552613328614</v>
+        <v>2468769.71290812</v>
       </c>
       <c r="G3">
-        <v>914</v>
+        <v>11044</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>21864.29858078603</v>
+        <v>23956.13195297421</v>
       </c>
       <c r="D4">
-        <v>2274147</v>
+        <v>8388608</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>89571.11783244133</v>
+        <v>211201.4512202044</v>
       </c>
       <c r="G4">
-        <v>1832</v>
+        <v>11398</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>76204.49344978166</v>
+        <v>456.8947932690066</v>
       </c>
       <c r="D5">
-        <v>6829297</v>
+        <v>8388664</v>
       </c>
       <c r="E5">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>320449.5648163838</v>
+        <v>57271.06482307906</v>
       </c>
       <c r="G5">
-        <v>916</v>
+        <v>21453</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>6806.605895196507</v>
+        <v>23.10500807754443</v>
       </c>
       <c r="D6">
-        <v>880922</v>
+        <v>6184</v>
       </c>
       <c r="E6">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>38689.49598174878</v>
+        <v>264.9733615851183</v>
       </c>
       <c r="G6">
-        <v>916</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>460.7860262008734</v>
+        <v>65.55346607669617</v>
       </c>
       <c r="D7">
-        <v>656</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>27.97897801647652</v>
+        <v>5.803926533610604</v>
       </c>
       <c r="G7">
-        <v>916</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>73.95191256830601</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6.483091429569703</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1830</v>
+        <v>10969</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>79.80743982494529</v>
+        <v>16319.71112937095</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>5936320</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.173570459859111</v>
+        <v>109544.6314972628</v>
       </c>
       <c r="G9">
-        <v>914</v>
+        <v>10953</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>1292.934497816594</v>
+        <v>501.3530162201567</v>
       </c>
       <c r="D10">
-        <v>127132</v>
+        <v>2032</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6124.449428607422</v>
+        <v>63.09981101763458</v>
       </c>
       <c r="G10">
-        <v>916</v>
+        <v>10974</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4645.973624717408</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>931196</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>39298.11216766007</v>
       </c>
       <c r="G11">
-        <v>916</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>5171.694323144105</v>
+        <v>729.3942658557776</v>
       </c>
       <c r="D12">
-        <v>806200</v>
+        <v>840</v>
       </c>
       <c r="E12">
-        <v>536</v>
+        <v>224</v>
       </c>
       <c r="F12">
-        <v>34620.13854362693</v>
+        <v>28.29816549568376</v>
       </c>
       <c r="G12">
-        <v>916</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>29.33908541846419</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.27650144403399</v>
+      </c>
+      <c r="G13">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>115.0982658959538</v>
+      </c>
+      <c r="D15">
+        <v>576</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>31.13306603052598</v>
+      </c>
+      <c r="G15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>7294575.555555556</v>
+      </c>
+      <c r="D16">
+        <v>13623296</v>
+      </c>
+      <c r="E16">
+        <v>424</v>
+      </c>
+      <c r="F16">
+        <v>6557151.551692737</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>1341.5</v>
+      </c>
+      <c r="D17">
+        <v>3012</v>
+      </c>
+      <c r="E17">
+        <v>472</v>
+      </c>
+      <c r="F17">
+        <v>1082.018368605635</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>19598.5</v>
+      </c>
+      <c r="D18">
+        <v>143680</v>
+      </c>
+      <c r="E18">
+        <v>412</v>
+      </c>
+      <c r="F18">
+        <v>36980.60066778256</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>2.461538461538462</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>8.810966808170065</v>
-      </c>
-      <c r="G13">
-        <v>26</v>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>472</v>
+      </c>
+      <c r="D19">
+        <v>560</v>
+      </c>
+      <c r="E19">
+        <v>160</v>
+      </c>
+      <c r="F19">
+        <v>115.8134964390887</v>
+      </c>
+      <c r="G19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1879048194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>132</v>
+      </c>
+      <c r="D20">
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>128</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1879048192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>5888</v>
+      </c>
+      <c r="D25">
+        <v>15464</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>6434.641248741067</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <v>184</v>
+      </c>
+      <c r="E26">
+        <v>184</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1694766464</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>1879048189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>410.6666666666667</v>
+      </c>
+      <c r="D29">
+        <v>592</v>
+      </c>
+      <c r="E29">
+        <v>296</v>
+      </c>
+      <c r="F29">
+        <v>129.7107894081633</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>1684333904</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
